--- a/biology/Botanique/F.Muell/F.Muell..xlsx
+++ b/biology/Botanique/F.Muell/F.Muell..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Ferdinand Jacob Heinrich von Müller ou Mueller est un botaniste allemand, né le 30 juin 1825 à Rostock et mort le 9 octobre 1896 à Melbourne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est douanier. Il commence ses études à Rostock, puis à Tönning, ville natale de sa mère, où elle était revenue après la mort de son mari en 1830, de la tuberculose. Sa mère meurt de la même maladie en 1835. Il devient apprenti pharmacien à Husum. Il se passionne alors pour la botanique, qu’il étudie dès qu’il le peut. Son herbier, riche de 5 000 spécimens, lui vaut une bonne réputation dans le cercle des botanistes du Schleswig-Holstein. Il obtient un doctorat à l’université de Kiel en 1847 avec une thèse sur la flore du sud-ouest de cette région. Il part peu après pour l’Australie. Ce pays est choisi par de nombreux Allemands de son temps, mais Müller, qui aurait pu exercer la médecine dans son pays, préfère suivre l’exemple d'Alexander von Humboldt (1769-1859) et se consacrer à l’exploration botanique. Plus prosaïquement, la mort de sa sœur aînée de tuberculose et les premiers signes de la maladie sur l’une de ses deux sœurs survivantes (et peut-être sur lui-même) l’incitent à quitter au plus vite le climat froid de l’Europe centrale pour la chaleur et la sécheresse australienne. Il arrive avec ses deux sœurs à Adélaïde en juillet 1847. Il envisage en 1849 d’acheter la pharmacie où il avait été apprenti à Husum, mais la guerre qui éclate dans le Schleswig-Holstein décourage son projet et il choisit de rester en Australie.
 En août 1849, il obtient la nationalité britannique et change son nom en Mueller. S’il avait jusqu’alors récolté des plantes sans se soucier de leurs identifications (il pensait le faire après être revenu en Allemagne), il décide de se constituer une bibliothèque et un herbier de référence. Le seul livre disponible est le Prodromus florae novae hollandiae (1810) de Robert Brown (1773-1858). Il se fait d’abord envoyer, grâce à un oncle, son herbier qu’il avait constitué en Allemagne. Il se consacre alors complètement à l’herborisation et fait parvenir ses premières récoltes à un botaniste renommé de Hambourg, Otto Wilhelm Sonder (1812-1881). Celui-ci se charge de les faire circuler parmi les botanistes européens et de les publier dans Linnaea sous le titre de Plantae Muellerianae. Il fait également parvenir des descriptions de la flore du sud de l’Australie à la Société linnéenne de Londres.
@@ -553,7 +567,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Australian and New Zealand Association for the Advancement of Science a commémoré son nom par la création de la médaille Mueller, qui récompense ceux qui ont contribué à l’avancée de la science en Australie. La poste australienne a édité un timbre à son effigie en 1947 et s’est associée à la poste allemande pour un nouveau timbre en 1996. Enfin, la revue du jardin botanique de Melbourne se nomme Muelleria (en).
 Plusieurs espèces d'Australie ont été nommées en son honneur, notamment le lézard Lerista muelleri et les arbres  Eucalyptus muelleriana et Terminalia ferdinandiana, ainsi que le genre de plantes parasites Muellerina.
